--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3366600.942890664</v>
+        <v>3364185.447497546</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152329</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.162326297521</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>283.3850917015894</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.9723987444508</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>314.5070022057399</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0460523132668</v>
+        <v>297.0460523132669</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4562021629422</v>
+        <v>286.4562021629423</v>
       </c>
       <c r="E17" t="n">
         <v>313.7035306145211</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6492062839707</v>
+        <v>338.6492062839708</v>
       </c>
       <c r="G17" t="n">
-        <v>321.0515753619987</v>
+        <v>280.090653031566</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3809249295797</v>
+        <v>226.3809249295798</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.9609223304352</v>
       </c>
       <c r="T17" t="n">
         <v>135.6911306818795</v>
@@ -1901,13 +1901,13 @@
         <v>182.7683325011613</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5254190123942</v>
+        <v>259.5254190123943</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0141292596723</v>
+        <v>281.0141292596724</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5042612207283</v>
+        <v>301.5042612207284</v>
       </c>
       <c r="Y17" t="n">
         <v>318.0110991983129</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824771</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>111.6051407241966</v>
       </c>
       <c r="C19" t="n">
-        <v>99.01998164088712</v>
+        <v>99.01998164088718</v>
       </c>
       <c r="D19" t="n">
-        <v>80.38863356047165</v>
+        <v>80.3886335604717</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20712318882846</v>
+        <v>78.20712318882852</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19420856519054</v>
+        <v>77.19420856519059</v>
       </c>
       <c r="G19" t="n">
-        <v>97.79896880128751</v>
+        <v>97.79896880128757</v>
       </c>
       <c r="H19" t="n">
-        <v>76.52817545658007</v>
+        <v>76.52817545658013</v>
       </c>
       <c r="I19" t="n">
-        <v>28.1255809520974</v>
+        <v>28.12558095209746</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70531321230663</v>
+        <v>20.70531321230669</v>
       </c>
       <c r="S19" t="n">
         <v>121.5421858737012</v>
@@ -2056,7 +2056,7 @@
         <v>151.3221098184285</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9849987478721</v>
+        <v>217.9849987478722</v>
       </c>
       <c r="V19" t="n">
         <v>183.9108038660873</v>
@@ -2065,7 +2065,7 @@
         <v>218.2961588788503</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4828159312964</v>
+        <v>157.4828159312965</v>
       </c>
       <c r="Y19" t="n">
         <v>150.3578138943541</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.9027690415913</v>
+        <v>314.5070022057399</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0460523132668</v>
+        <v>297.0460523132669</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4562021629422</v>
+        <v>286.4562021629423</v>
       </c>
       <c r="E20" t="n">
         <v>313.7035306145211</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6492062839707</v>
+        <v>338.6492062839708</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6948861957127</v>
+        <v>342.6948861957128</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3809249295797</v>
+        <v>163.7766917654316</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96092233043514</v>
+        <v>40.9609223304352</v>
       </c>
       <c r="T20" t="n">
         <v>135.6911306818795</v>
@@ -2138,13 +2138,13 @@
         <v>182.7683325011613</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5254190123942</v>
+        <v>259.5254190123943</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0141292596723</v>
+        <v>281.0141292596724</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5042612207283</v>
+        <v>301.5042612207284</v>
       </c>
       <c r="Y20" t="n">
         <v>318.0110991983129</v>
@@ -2239,25 +2239,25 @@
         <v>111.6051407241966</v>
       </c>
       <c r="C22" t="n">
-        <v>99.01998164088712</v>
+        <v>99.01998164088718</v>
       </c>
       <c r="D22" t="n">
-        <v>80.38863356047165</v>
+        <v>80.3886335604717</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20712318882846</v>
+        <v>78.20712318882852</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19420856519054</v>
+        <v>77.19420856519059</v>
       </c>
       <c r="G22" t="n">
-        <v>97.79896880128751</v>
+        <v>97.79896880128757</v>
       </c>
       <c r="H22" t="n">
-        <v>76.52817545658007</v>
+        <v>76.52817545658013</v>
       </c>
       <c r="I22" t="n">
-        <v>28.1255809520974</v>
+        <v>28.12558095209746</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70531321230663</v>
+        <v>20.70531321230669</v>
       </c>
       <c r="S22" t="n">
         <v>121.5421858737012</v>
@@ -2293,7 +2293,7 @@
         <v>151.3221098184285</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9849987478721</v>
+        <v>217.9849987478722</v>
       </c>
       <c r="V22" t="n">
         <v>183.9108038660873</v>
@@ -2302,7 +2302,7 @@
         <v>218.2961588788503</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4828159312964</v>
+        <v>157.4828159312965</v>
       </c>
       <c r="Y22" t="n">
         <v>150.3578138943541</v>
@@ -2318,7 +2318,7 @@
         <v>314.5070022057399</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0460523132668</v>
+        <v>297.0460523132669</v>
       </c>
       <c r="D23" t="n">
         <v>286.4562021629423</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96092233043517</v>
+        <v>40.9609223304352</v>
       </c>
       <c r="T23" t="n">
         <v>135.6911306818795</v>
@@ -2375,7 +2375,7 @@
         <v>182.7683325011613</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5254190123942</v>
+        <v>259.5254190123943</v>
       </c>
       <c r="W23" t="n">
         <v>281.0141292596724</v>
@@ -2476,25 +2476,25 @@
         <v>111.6051407241966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.01998164088715</v>
+        <v>99.01998164088718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.38863356047167</v>
+        <v>80.3886335604717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20712318882849</v>
+        <v>78.20712318882852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19420856519056</v>
+        <v>77.19420856519059</v>
       </c>
       <c r="G25" t="n">
-        <v>97.79896880128754</v>
+        <v>97.79896880128757</v>
       </c>
       <c r="H25" t="n">
-        <v>76.5281754565801</v>
+        <v>76.52817545658013</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12558095209743</v>
+        <v>28.12558095209746</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70531321230666</v>
+        <v>20.70531321230669</v>
       </c>
       <c r="S25" t="n">
         <v>121.5421858737012</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572928</v>
+        <v>97.77987829572749</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124527</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>310.0352712654435</v>
+        <v>310.0352712654436</v>
       </c>
       <c r="C35" t="n">
         <v>292.5743213729705</v>
@@ -3272,7 +3272,7 @@
         <v>281.9844712226459</v>
       </c>
       <c r="E35" t="n">
-        <v>309.2317996742247</v>
+        <v>309.2317996742248</v>
       </c>
       <c r="F35" t="n">
         <v>334.1774753436744</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.4891913901388</v>
+        <v>36.48919139013883</v>
       </c>
       <c r="T35" t="n">
         <v>131.2193997415831</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2966015608649</v>
+        <v>178.296601560865</v>
       </c>
       <c r="V35" t="n">
         <v>255.0536880720979</v>
       </c>
       <c r="W35" t="n">
-        <v>276.5423983193759</v>
+        <v>276.542398319376</v>
       </c>
       <c r="X35" t="n">
         <v>297.032530280432</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.1334097839002</v>
+        <v>107.1334097839003</v>
       </c>
       <c r="C37" t="n">
-        <v>94.54825070059078</v>
+        <v>94.54825070059081</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91690262017531</v>
+        <v>75.91690262017534</v>
       </c>
       <c r="E37" t="n">
-        <v>116.9876815205833</v>
+        <v>73.73539224853215</v>
       </c>
       <c r="F37" t="n">
-        <v>72.7224776248942</v>
+        <v>72.72247762489422</v>
       </c>
       <c r="G37" t="n">
-        <v>93.32723786099118</v>
+        <v>93.3272378609912</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05644451628373</v>
+        <v>72.05644451628376</v>
       </c>
       <c r="I37" t="n">
-        <v>23.65385001180106</v>
+        <v>23.65385001180109</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.2335822720103</v>
+        <v>16.23358227201032</v>
       </c>
       <c r="S37" t="n">
-        <v>117.0704549334048</v>
+        <v>117.0704549334049</v>
       </c>
       <c r="T37" t="n">
-        <v>146.8503788781321</v>
+        <v>190.1026681501827</v>
       </c>
       <c r="U37" t="n">
         <v>213.5132678075758</v>
@@ -3490,7 +3490,7 @@
         <v>153.0110849910001</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8860829540577</v>
+        <v>145.8860829540578</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.0352712654435</v>
+        <v>310.0352712654436</v>
       </c>
       <c r="C38" t="n">
         <v>292.5743213729705</v>
@@ -3509,7 +3509,7 @@
         <v>281.9844712226459</v>
       </c>
       <c r="E38" t="n">
-        <v>309.2317996742247</v>
+        <v>309.2317996742248</v>
       </c>
       <c r="F38" t="n">
         <v>334.1774753436744</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.4891913901388</v>
+        <v>36.48919139013883</v>
       </c>
       <c r="T38" t="n">
         <v>131.2193997415831</v>
       </c>
       <c r="U38" t="n">
-        <v>178.2966015608649</v>
+        <v>178.296601560865</v>
       </c>
       <c r="V38" t="n">
-        <v>255.0536880720984</v>
+        <v>255.0536880720979</v>
       </c>
       <c r="W38" t="n">
-        <v>276.5423983193759</v>
+        <v>276.542398319376</v>
       </c>
       <c r="X38" t="n">
         <v>297.032530280432</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247713</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.1334097839002</v>
+        <v>107.1334097839003</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54825070059078</v>
+        <v>94.54825070059081</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91690262017531</v>
+        <v>75.91690262017534</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73539224853212</v>
+        <v>73.73539224853215</v>
       </c>
       <c r="F40" t="n">
-        <v>72.7224776248942</v>
+        <v>72.72247762489422</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32723786099118</v>
+        <v>93.3272378609912</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05644451628373</v>
+        <v>72.05644451628376</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65385001180106</v>
+        <v>23.65385001180109</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2335822720103</v>
+        <v>16.23358227201032</v>
       </c>
       <c r="S40" t="n">
-        <v>117.0704549334048</v>
+        <v>117.0704549334049</v>
       </c>
       <c r="T40" t="n">
-        <v>146.8503788781321</v>
+        <v>146.8503788781322</v>
       </c>
       <c r="U40" t="n">
         <v>213.5132678075758</v>
@@ -3724,10 +3724,10 @@
         <v>213.824427938554</v>
       </c>
       <c r="X40" t="n">
-        <v>196.2633742630512</v>
+        <v>153.0110849910001</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.8860829540577</v>
+        <v>189.1383722261083</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
@@ -3794,16 +3794,16 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>176.7427379901312</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>213.5060897741277</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>77.47253204982069</v>
+        <v>180.3615956913139</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
         <v>204.0200353403094</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.383644777218</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1305.87076078488</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1305.87076078488</v>
+        <v>995.0546951262036</v>
       </c>
       <c r="E11" t="n">
-        <v>967.532141134709</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>603.9958692931752</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>236.373052086245</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
         <v>3262.764786084339</v>
@@ -5072,19 +5072,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1966.533851893267</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770415</v>
@@ -5191,25 +5191,25 @@
         <v>215.1557144998338</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328089</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
         <v>1896.109063016758</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822729</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607998</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.207425607998</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5373,7 +5373,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315258</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337115</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.023623116758</v>
+        <v>1833.648954096118</v>
       </c>
       <c r="C17" t="n">
-        <v>1574.977105628609</v>
+        <v>1533.60243660797</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.627406474122</v>
+        <v>1244.252737453482</v>
       </c>
       <c r="E17" t="n">
-        <v>968.7551533281412</v>
+        <v>927.3804843075014</v>
       </c>
       <c r="F17" t="n">
-        <v>626.6852479907971</v>
+        <v>585.3105789701572</v>
       </c>
       <c r="G17" t="n">
-        <v>302.3907274231206</v>
+        <v>302.3907274231207</v>
       </c>
       <c r="H17" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="I17" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6022574431764</v>
+        <v>430.0079064635295</v>
       </c>
       <c r="K17" t="n">
-        <v>596.4216311330229</v>
+        <v>949.7611236794412</v>
       </c>
       <c r="L17" t="n">
-        <v>1400.795336927848</v>
+        <v>1400.79533692785</v>
       </c>
       <c r="M17" t="n">
-        <v>1934.327241599772</v>
+        <v>1934.327241599774</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.106058658554</v>
+        <v>2481.106058658556</v>
       </c>
       <c r="O17" t="n">
-        <v>2984.078529537891</v>
+        <v>2984.078529537893</v>
       </c>
       <c r="P17" t="n">
-        <v>3378.852895895069</v>
+        <v>3378.852895895071</v>
       </c>
       <c r="Q17" t="n">
-        <v>3627.139257650751</v>
+        <v>3627.139257650753</v>
       </c>
       <c r="R17" t="n">
-        <v>3686.156324207554</v>
+        <v>3686.156324207556</v>
       </c>
       <c r="S17" t="n">
-        <v>3686.156324207554</v>
+        <v>3644.781655186914</v>
       </c>
       <c r="T17" t="n">
-        <v>3549.094576044039</v>
+        <v>3507.7199070234</v>
       </c>
       <c r="U17" t="n">
-        <v>3364.480098770139</v>
+        <v>3323.1054297495</v>
       </c>
       <c r="V17" t="n">
-        <v>3102.333210878832</v>
+        <v>3060.958541858192</v>
       </c>
       <c r="W17" t="n">
-        <v>2818.480555060981</v>
+        <v>2777.105886040341</v>
       </c>
       <c r="X17" t="n">
-        <v>2513.930796252164</v>
+        <v>2472.556127231524</v>
       </c>
       <c r="Y17" t="n">
-        <v>2192.707463728616</v>
+        <v>2151.332794707976</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>948.7548645330763</v>
+        <v>948.754864533076</v>
       </c>
       <c r="C18" t="n">
-        <v>774.3018352519493</v>
+        <v>774.301835251949</v>
       </c>
       <c r="D18" t="n">
-        <v>625.3674255906981</v>
+        <v>625.3674255906977</v>
       </c>
       <c r="E18" t="n">
-        <v>466.1299705852425</v>
+        <v>466.1299705852422</v>
       </c>
       <c r="F18" t="n">
-        <v>319.5954126121275</v>
+        <v>319.5954126121272</v>
       </c>
       <c r="G18" t="n">
-        <v>183.2323124447456</v>
+        <v>183.2323124447453</v>
       </c>
       <c r="H18" t="n">
-        <v>92.73041808261314</v>
+        <v>92.73041808261284</v>
       </c>
       <c r="I18" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="J18" t="n">
-        <v>167.4003959747683</v>
+        <v>167.4003959747684</v>
       </c>
       <c r="K18" t="n">
-        <v>405.6645949551158</v>
+        <v>405.6645949551155</v>
       </c>
       <c r="L18" t="n">
-        <v>772.362755267781</v>
+        <v>772.3627552677808</v>
       </c>
       <c r="M18" t="n">
         <v>1219.639080490097</v>
@@ -5628,7 +5628,7 @@
         <v>2021.971465483575</v>
       </c>
       <c r="V18" t="n">
-        <v>1786.819357251833</v>
+        <v>1786.819357251832</v>
       </c>
       <c r="W18" t="n">
         <v>1532.582000523631</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.4126943279317</v>
+        <v>616.4126943279322</v>
       </c>
       <c r="C19" t="n">
-        <v>516.3925108522882</v>
+        <v>516.3925108522885</v>
       </c>
       <c r="D19" t="n">
-        <v>435.1918708922158</v>
+        <v>435.1918708922161</v>
       </c>
       <c r="E19" t="n">
-        <v>356.194776762086</v>
+        <v>356.1947767620862</v>
       </c>
       <c r="F19" t="n">
-        <v>278.220828716439</v>
+        <v>278.2208287164392</v>
       </c>
       <c r="G19" t="n">
-        <v>179.4339915434213</v>
+        <v>179.4339915434214</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1328042135424</v>
+        <v>102.1328042135425</v>
       </c>
       <c r="I19" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="J19" t="n">
-        <v>118.8457589310866</v>
+        <v>118.8457589310867</v>
       </c>
       <c r="K19" t="n">
-        <v>351.4141598321757</v>
+        <v>322.832941879963</v>
       </c>
       <c r="L19" t="n">
-        <v>667.9739582806718</v>
+        <v>667.9739582806727</v>
       </c>
       <c r="M19" t="n">
-        <v>1012.131003880221</v>
+        <v>1012.131003880222</v>
       </c>
       <c r="N19" t="n">
-        <v>1353.539380586085</v>
+        <v>1353.539380586086</v>
       </c>
       <c r="O19" t="n">
-        <v>1652.868979506499</v>
+        <v>1652.8689795065</v>
       </c>
       <c r="P19" t="n">
-        <v>1885.476479940158</v>
+        <v>1885.476479940159</v>
       </c>
       <c r="Q19" t="n">
-        <v>1963.086776092672</v>
+        <v>1963.086776092674</v>
       </c>
       <c r="R19" t="n">
-        <v>1942.172318302464</v>
+        <v>1942.172318302465</v>
       </c>
       <c r="S19" t="n">
-        <v>1819.402433581553</v>
+        <v>1819.402433581554</v>
       </c>
       <c r="T19" t="n">
-        <v>1666.551817603343</v>
+        <v>1666.551817603344</v>
       </c>
       <c r="U19" t="n">
         <v>1446.36495018125</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.596461427626</v>
+        <v>1260.596461427627</v>
       </c>
       <c r="W19" t="n">
         <v>1040.095290842929</v>
       </c>
       <c r="X19" t="n">
-        <v>881.0217393971749</v>
+        <v>881.0217393971753</v>
       </c>
       <c r="Y19" t="n">
-        <v>729.1451597059081</v>
+        <v>729.1451597059086</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1896.885553251821</v>
+        <v>1833.648954096117</v>
       </c>
       <c r="C20" t="n">
-        <v>1596.839035763673</v>
+        <v>1533.602436607969</v>
       </c>
       <c r="D20" t="n">
-        <v>1307.489336609186</v>
+        <v>1244.252737453482</v>
       </c>
       <c r="E20" t="n">
-        <v>990.6170834632046</v>
+        <v>927.380484307501</v>
       </c>
       <c r="F20" t="n">
-        <v>648.5471781258605</v>
+        <v>585.3105789701567</v>
       </c>
       <c r="G20" t="n">
-        <v>302.3907274231206</v>
+        <v>239.1541282674153</v>
       </c>
       <c r="H20" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="I20" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6022574431764</v>
+        <v>262.6022574431765</v>
       </c>
       <c r="K20" t="n">
         <v>596.4216311330229</v>
       </c>
       <c r="L20" t="n">
-        <v>1400.795336927848</v>
+        <v>1047.455844381431</v>
       </c>
       <c r="M20" t="n">
-        <v>1934.327241599772</v>
+        <v>1580.987749053356</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.106058658554</v>
+        <v>2127.766566112138</v>
       </c>
       <c r="O20" t="n">
-        <v>2984.078529537891</v>
+        <v>2984.078529537893</v>
       </c>
       <c r="P20" t="n">
-        <v>3378.852895895069</v>
+        <v>3378.852895895071</v>
       </c>
       <c r="Q20" t="n">
-        <v>3627.139257650751</v>
+        <v>3627.139257650753</v>
       </c>
       <c r="R20" t="n">
-        <v>3686.156324207554</v>
+        <v>3686.156324207556</v>
       </c>
       <c r="S20" t="n">
-        <v>3644.781655186912</v>
+        <v>3644.781655186914</v>
       </c>
       <c r="T20" t="n">
-        <v>3507.719907023397</v>
+        <v>3507.7199070234</v>
       </c>
       <c r="U20" t="n">
-        <v>3323.105429749497</v>
+        <v>3323.105429749499</v>
       </c>
       <c r="V20" t="n">
-        <v>3060.95854185819</v>
+        <v>3060.958541858192</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.105886040339</v>
+        <v>2777.105886040341</v>
       </c>
       <c r="X20" t="n">
-        <v>2472.556127231522</v>
+        <v>2472.556127231524</v>
       </c>
       <c r="Y20" t="n">
-        <v>2151.332794707974</v>
+        <v>2151.332794707976</v>
       </c>
     </row>
     <row r="21">
@@ -5814,28 +5814,28 @@
         <v>625.3674255906981</v>
       </c>
       <c r="E21" t="n">
-        <v>466.1299705852425</v>
+        <v>466.1299705852426</v>
       </c>
       <c r="F21" t="n">
-        <v>319.5954126121275</v>
+        <v>319.5954126121276</v>
       </c>
       <c r="G21" t="n">
-        <v>183.2323124447456</v>
+        <v>183.2323124447457</v>
       </c>
       <c r="H21" t="n">
-        <v>92.73041808261314</v>
+        <v>92.7304180826132</v>
       </c>
       <c r="I21" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="J21" t="n">
-        <v>167.4003959747683</v>
+        <v>167.4003959747684</v>
       </c>
       <c r="K21" t="n">
-        <v>405.6645949551154</v>
+        <v>405.6645949551155</v>
       </c>
       <c r="L21" t="n">
-        <v>772.3627552677807</v>
+        <v>772.3627552677808</v>
       </c>
       <c r="M21" t="n">
         <v>1219.639080490097</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.4126943279317</v>
+        <v>616.4126943279322</v>
       </c>
       <c r="C22" t="n">
-        <v>516.3925108522882</v>
+        <v>516.3925108522885</v>
       </c>
       <c r="D22" t="n">
-        <v>435.1918708922158</v>
+        <v>435.1918708922161</v>
       </c>
       <c r="E22" t="n">
-        <v>356.194776762086</v>
+        <v>356.1947767620862</v>
       </c>
       <c r="F22" t="n">
-        <v>278.220828716439</v>
+        <v>278.2208287164392</v>
       </c>
       <c r="G22" t="n">
-        <v>179.4339915434213</v>
+        <v>179.4339915434214</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1328042135424</v>
+        <v>102.1328042135425</v>
       </c>
       <c r="I22" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415112</v>
       </c>
       <c r="J22" t="n">
-        <v>118.8457589310866</v>
+        <v>118.8457589310867</v>
       </c>
       <c r="K22" t="n">
         <v>322.832941879963</v>
@@ -5926,34 +5926,34 @@
         <v>1624.287761554286</v>
       </c>
       <c r="P22" t="n">
-        <v>1885.476479940158</v>
+        <v>1885.476479940159</v>
       </c>
       <c r="Q22" t="n">
-        <v>1963.086776092672</v>
+        <v>1963.086776092674</v>
       </c>
       <c r="R22" t="n">
-        <v>1942.172318302464</v>
+        <v>1942.172318302465</v>
       </c>
       <c r="S22" t="n">
-        <v>1819.402433581553</v>
+        <v>1819.402433581554</v>
       </c>
       <c r="T22" t="n">
-        <v>1666.551817603343</v>
+        <v>1666.551817603344</v>
       </c>
       <c r="U22" t="n">
         <v>1446.36495018125</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.596461427626</v>
+        <v>1260.596461427627</v>
       </c>
       <c r="W22" t="n">
         <v>1040.095290842929</v>
       </c>
       <c r="X22" t="n">
-        <v>881.0217393971749</v>
+        <v>881.0217393971753</v>
       </c>
       <c r="Y22" t="n">
-        <v>729.1451597059081</v>
+        <v>729.1451597059086</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.176096091734</v>
+        <v>1898.176096091735</v>
       </c>
       <c r="C23" t="n">
         <v>1598.129578603586</v>
@@ -5972,10 +5972,10 @@
         <v>1308.779879449099</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9076263031176</v>
+        <v>991.907626303118</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8377209657733</v>
+        <v>649.8377209657738</v>
       </c>
       <c r="G23" t="n">
         <v>303.681270263033</v>
@@ -5990,40 +5990,40 @@
         <v>263.8928002830888</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6161324183882</v>
+        <v>597.7121739729353</v>
       </c>
       <c r="L23" t="n">
-        <v>1369.650345666797</v>
+        <v>1048.746387221344</v>
       </c>
       <c r="M23" t="n">
-        <v>1903.182250338721</v>
+        <v>1582.278291893268</v>
       </c>
       <c r="N23" t="n">
-        <v>2480.57394497992</v>
+        <v>2168.641021204056</v>
       </c>
       <c r="O23" t="n">
-        <v>2983.546415859257</v>
+        <v>3048.60567153351</v>
       </c>
       <c r="P23" t="n">
-        <v>3378.320782216435</v>
+        <v>3443.380037890688</v>
       </c>
       <c r="Q23" t="n">
-        <v>3626.607143972117</v>
+        <v>3691.66639964637</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.683466203172</v>
+        <v>3750.683466203173</v>
       </c>
       <c r="S23" t="n">
         <v>3709.308797182531</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.247049019016</v>
+        <v>3572.247049019017</v>
       </c>
       <c r="U23" t="n">
         <v>3387.632571745116</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.485683853808</v>
+        <v>3125.485683853809</v>
       </c>
       <c r="W23" t="n">
         <v>2841.633028035958</v>
@@ -6066,22 +6066,22 @@
         <v>75.01366932406346</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6909388146807</v>
+        <v>168.6909388146813</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9551377950278</v>
+        <v>406.9551377950284</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6532981076931</v>
+        <v>773.6532981076937</v>
       </c>
       <c r="M24" t="n">
         <v>1220.929623330009</v>
       </c>
       <c r="N24" t="n">
-        <v>1694.452666884463</v>
+        <v>1694.452666884464</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.413946302518</v>
+        <v>2105.413946302519</v>
       </c>
       <c r="P24" t="n">
         <v>2415.913537778622</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7032371678442</v>
+        <v>617.7032371678446</v>
       </c>
       <c r="C25" t="n">
-        <v>517.6830536922007</v>
+        <v>517.6830536922009</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4824137321283</v>
+        <v>436.4824137321285</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4853196019985</v>
+        <v>357.4853196019986</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5113715563514</v>
+        <v>279.5113715563515</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7245343833337</v>
+        <v>180.7245343833338</v>
       </c>
       <c r="H25" t="n">
         <v>103.4233470534548</v>
@@ -6151,46 +6151,46 @@
         <v>324.1234847198753</v>
       </c>
       <c r="L25" t="n">
-        <v>669.2645011205844</v>
+        <v>640.6832831683714</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.421546720133</v>
+        <v>1013.421546720134</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.829923425998</v>
+        <v>1354.829923425999</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.159522346411</v>
+        <v>1654.159522346412</v>
       </c>
       <c r="P25" t="n">
         <v>1886.767022780071</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.377318932585</v>
+        <v>1964.377318932586</v>
       </c>
       <c r="R25" t="n">
         <v>1943.462861142377</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.692976421466</v>
+        <v>1820.692976421467</v>
       </c>
       <c r="T25" t="n">
         <v>1667.842360443256</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.655493021162</v>
+        <v>1447.655493021163</v>
       </c>
       <c r="V25" t="n">
         <v>1261.887004267539</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.385833682841</v>
+        <v>1041.385833682842</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3122822370874</v>
+        <v>882.3122822370877</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4357025458206</v>
+        <v>730.435702545821</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557145</v>
@@ -6233,43 +6233,43 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1653.273486349</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2200.052303407782</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737237</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6309,7 +6309,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913834</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415479</v>
+        <v>350.0437186415464</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643402</v>
+        <v>229.7905149643386</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6409,25 +6409,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799119</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.044482857901</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737238</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6552,7 +6552,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6607,28 +6607,28 @@
         <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982167</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6677,73 +6677,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>822.9179334642261</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.404136464985</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136909</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.714858195691</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075028</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302708</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
         <v>1910.743863481264</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6920,37 +6920,37 @@
         <v>1289.421736850413</v>
       </c>
       <c r="E35" t="n">
-        <v>977.0663836441257</v>
+        <v>977.066383644125</v>
       </c>
       <c r="F35" t="n">
-        <v>639.5133782464748</v>
+        <v>639.5133782464741</v>
       </c>
       <c r="G35" t="n">
         <v>297.8738274834272</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6022574431765</v>
+        <v>262.6022574431764</v>
       </c>
       <c r="K35" t="n">
-        <v>596.4216311330229</v>
+        <v>917.3255895784758</v>
       </c>
       <c r="L35" t="n">
-        <v>1082.21461583808</v>
+        <v>1368.359802826884</v>
       </c>
       <c r="M35" t="n">
-        <v>1615.746520510005</v>
+        <v>1934.327241599772</v>
       </c>
       <c r="N35" t="n">
-        <v>2162.525337568787</v>
+        <v>2481.106058658554</v>
       </c>
       <c r="O35" t="n">
-        <v>2665.497808448124</v>
+        <v>2984.078529537891</v>
       </c>
       <c r="P35" t="n">
         <v>3378.852895895069</v>
@@ -6962,7 +6962,7 @@
         <v>3686.156324207554</v>
       </c>
       <c r="S35" t="n">
-        <v>3649.298555126606</v>
+        <v>3649.298555126605</v>
       </c>
       <c r="T35" t="n">
         <v>3516.753706902784</v>
@@ -6974,7 +6974,7 @@
         <v>3079.026141616963</v>
       </c>
       <c r="W35" t="n">
-        <v>2799.690385738806</v>
+        <v>2799.690385738805</v>
       </c>
       <c r="X35" t="n">
         <v>2499.657526869682</v>
@@ -7011,16 +7011,16 @@
         <v>92.73041808261314</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="J36" t="n">
         <v>167.4003959747683</v>
       </c>
       <c r="K36" t="n">
-        <v>405.6645949551158</v>
+        <v>405.6645949551154</v>
       </c>
       <c r="L36" t="n">
-        <v>772.362755267781</v>
+        <v>772.3627552677807</v>
       </c>
       <c r="M36" t="n">
         <v>1219.639080490097</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>628.4835758329586</v>
+        <v>584.7943947500791</v>
       </c>
       <c r="C37" t="n">
-        <v>532.9802922970084</v>
+        <v>489.2911112141287</v>
       </c>
       <c r="D37" t="n">
-        <v>456.2965522766293</v>
+        <v>412.6073711937495</v>
       </c>
       <c r="E37" t="n">
-        <v>338.1271770033129</v>
+        <v>338.127177003313</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6701288973591</v>
+        <v>264.6701288973592</v>
       </c>
       <c r="G37" t="n">
-        <v>170.4001916640347</v>
+        <v>170.4001916640348</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61590427384913</v>
+        <v>97.61590427384914</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="J37" t="n">
         <v>118.8457589310866</v>
@@ -7117,28 +7117,28 @@
         <v>1934.50555814046</v>
       </c>
       <c r="R37" t="n">
-        <v>1918.108000289945</v>
+        <v>1918.108000289944</v>
       </c>
       <c r="S37" t="n">
-        <v>1799.855015508728</v>
+        <v>1799.855015508727</v>
       </c>
       <c r="T37" t="n">
-        <v>1651.52129947021</v>
+        <v>1607.832118387331</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.85133198781</v>
+        <v>1392.162150904931</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.59974317388</v>
+        <v>1210.910562091</v>
       </c>
       <c r="W37" t="n">
-        <v>1038.615472528876</v>
+        <v>994.9262914459964</v>
       </c>
       <c r="X37" t="n">
-        <v>884.0588210228152</v>
+        <v>840.3696399399356</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.6991412712417</v>
+        <v>693.0099601883621</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.784153613662</v>
+        <v>1869.784153613663</v>
       </c>
       <c r="C38" t="n">
-        <v>1574.254536065207</v>
+        <v>1574.254536065208</v>
       </c>
       <c r="D38" t="n">
-        <v>1289.421736850413</v>
+        <v>1289.421736850414</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0663836441257</v>
+        <v>977.0663836441261</v>
       </c>
       <c r="F38" t="n">
-        <v>639.5133782464748</v>
+        <v>639.513378246475</v>
       </c>
       <c r="G38" t="n">
-        <v>297.8738274834272</v>
+        <v>297.8738274834273</v>
       </c>
       <c r="H38" t="n">
         <v>73.72312648415109</v>
@@ -7175,19 +7175,19 @@
         <v>262.6022574431765</v>
       </c>
       <c r="K38" t="n">
-        <v>596.4216311330229</v>
+        <v>917.325589578476</v>
       </c>
       <c r="L38" t="n">
-        <v>1047.455844381431</v>
+        <v>1368.359802826885</v>
       </c>
       <c r="M38" t="n">
-        <v>1615.746520510005</v>
+        <v>1934.327241599773</v>
       </c>
       <c r="N38" t="n">
-        <v>2162.525337568787</v>
+        <v>2481.106058658555</v>
       </c>
       <c r="O38" t="n">
-        <v>2665.497808448124</v>
+        <v>2984.078529537892</v>
       </c>
       <c r="P38" t="n">
         <v>3378.85289589507</v>
@@ -7208,16 +7208,16 @@
         <v>3336.656129568578</v>
       </c>
       <c r="V38" t="n">
-        <v>3079.026141616963</v>
+        <v>3079.026141616964</v>
       </c>
       <c r="W38" t="n">
         <v>2799.690385738806</v>
       </c>
       <c r="X38" t="n">
-        <v>2499.657526869682</v>
+        <v>2499.657526869683</v>
       </c>
       <c r="Y38" t="n">
-        <v>2182.951094285827</v>
+        <v>2182.951094285828</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>948.754864533076</v>
+        <v>948.7548645330763</v>
       </c>
       <c r="C39" t="n">
-        <v>774.301835251949</v>
+        <v>774.3018352519493</v>
       </c>
       <c r="D39" t="n">
-        <v>625.3674255906977</v>
+        <v>625.3674255906981</v>
       </c>
       <c r="E39" t="n">
-        <v>466.1299705852422</v>
+        <v>466.1299705852426</v>
       </c>
       <c r="F39" t="n">
-        <v>319.5954126121272</v>
+        <v>319.5954126121276</v>
       </c>
       <c r="G39" t="n">
-        <v>183.2323124447453</v>
+        <v>183.2323124447457</v>
       </c>
       <c r="H39" t="n">
-        <v>92.73041808261284</v>
+        <v>92.73041808261317</v>
       </c>
       <c r="I39" t="n">
         <v>73.72312648415109</v>
@@ -7287,7 +7287,7 @@
         <v>2021.971465483575</v>
       </c>
       <c r="V39" t="n">
-        <v>1786.819357251832</v>
+        <v>1786.819357251833</v>
       </c>
       <c r="W39" t="n">
         <v>1532.582000523631</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7943947500787</v>
+        <v>584.7943947500791</v>
       </c>
       <c r="C40" t="n">
-        <v>489.2911112141285</v>
+        <v>489.2911112141287</v>
       </c>
       <c r="D40" t="n">
-        <v>412.6073711937494</v>
+        <v>412.6073711937495</v>
       </c>
       <c r="E40" t="n">
-        <v>338.1271770033129</v>
+        <v>338.127177003313</v>
       </c>
       <c r="F40" t="n">
         <v>264.6701288973592</v>
       </c>
       <c r="G40" t="n">
-        <v>170.4001916640347</v>
+        <v>170.4001916640348</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61590427384914</v>
+        <v>97.61590427384917</v>
       </c>
       <c r="I40" t="n">
         <v>73.72312648415109</v>
@@ -7354,10 +7354,10 @@
         <v>1934.50555814046</v>
       </c>
       <c r="R40" t="n">
-        <v>1918.108000289945</v>
+        <v>1918.108000289944</v>
       </c>
       <c r="S40" t="n">
-        <v>1799.855015508728</v>
+        <v>1799.855015508727</v>
       </c>
       <c r="T40" t="n">
         <v>1651.52129947021</v>
@@ -7372,10 +7372,10 @@
         <v>1038.615472528876</v>
       </c>
       <c r="X40" t="n">
-        <v>840.3696399399353</v>
+        <v>884.058821022815</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0099601883618</v>
+        <v>693.0099601883621</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1654.93647038346</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C41" t="n">
-        <v>1333.423586391121</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="D41" t="n">
-        <v>1022.607520732444</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E41" t="n">
-        <v>684.2689010822733</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>684.2689010822733</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G41" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753428</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7442,19 +7442,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>2925.708653244785</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.095398849287</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W41" t="n">
-        <v>2336.776376527247</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X41" t="n">
-        <v>2336.776376527247</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y41" t="n">
-        <v>1994.086677499508</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7476,7 +7476,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
@@ -7488,13 +7488,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7503,19 +7503,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657649</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7588,31 +7588,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1785.911759444923</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C44" t="n">
-        <v>1464.398875452585</v>
+        <v>979.8546354718736</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.143792573978</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F44" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7676,22 +7676,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3056.683942306248</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>2773.070687910751</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W44" t="n">
-        <v>2467.75166558871</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X44" t="n">
-        <v>2467.75166558871</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>2125.061966560972</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7746,31 +7746,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K46" t="n">
         <v>408.6327023328086</v>
@@ -7825,13 +7825,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T46" t="n">
         <v>1938.403572105846</v>
@@ -7849,7 +7849,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>209.6550648867639</v>
+        <v>209.6550648867632</v>
       </c>
       <c r="L8" t="n">
-        <v>222.8211400338099</v>
+        <v>222.821140033809</v>
       </c>
       <c r="M8" t="n">
-        <v>215.9421205733301</v>
+        <v>215.9421205733291</v>
       </c>
       <c r="N8" t="n">
-        <v>214.7758773408713</v>
+        <v>214.7758773408704</v>
       </c>
       <c r="O8" t="n">
-        <v>216.2767315021464</v>
+        <v>216.2767315021455</v>
       </c>
       <c r="P8" t="n">
-        <v>219.4366824151813</v>
+        <v>219.4366824151805</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.690887452763</v>
+        <v>122.6908874527627</v>
       </c>
       <c r="K9" t="n">
-        <v>130.7540011748933</v>
+        <v>130.7540011748928</v>
       </c>
       <c r="L9" t="n">
-        <v>129.0244450143433</v>
+        <v>129.0244450143426</v>
       </c>
       <c r="M9" t="n">
-        <v>131.0130495486274</v>
+        <v>131.0130495486266</v>
       </c>
       <c r="N9" t="n">
-        <v>119.9263883451005</v>
+        <v>119.9263883450997</v>
       </c>
       <c r="O9" t="n">
-        <v>132.1534533884753</v>
+        <v>132.1534533884745</v>
       </c>
       <c r="P9" t="n">
-        <v>125.5931469391927</v>
+        <v>125.5931469391921</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.3791234160688</v>
+        <v>134.3791234160684</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>129.4140016401664</v>
+        <v>129.414001640166</v>
       </c>
       <c r="M10" t="n">
-        <v>133.1577245837795</v>
+        <v>133.1577245837791</v>
       </c>
       <c r="N10" t="n">
-        <v>122.0546366608328</v>
+        <v>122.0546366608324</v>
       </c>
       <c r="O10" t="n">
-        <v>133.2554837056409</v>
+        <v>133.2554837056405</v>
       </c>
       <c r="P10" t="n">
-        <v>133.2776032037997</v>
+        <v>133.2776032037993</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>187.8119631576417</v>
       </c>
       <c r="L17" t="n">
-        <v>356.9085783297132</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.446132268436486e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>356.9085783297132</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>356.9085783297154</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>30.92209856809802</v>
+        <v>39.98374974950036</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>65.51711806374396</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>190.2350110279889</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>446.3172993264895</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473916</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744092</v>
       </c>
       <c r="L32" t="n">
-        <v>402.5500016878941</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>35.10987015823099</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>32.76316575854878</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>35.10987015823162</v>
+        <v>32.76316575854946</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.161915174132446e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.22070545115725</v>
+        <v>15.22070545115724</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843631</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>79.47030147120681</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.37361334329857</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>42.32535640796419</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>21.64331083371405</v>
+        <v>62.60423316414681</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96092233043513</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.60423316414858</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>62.60423316414824</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.076472244676552e-12</v>
+        <v>7.425171588693047e-13</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25682,16 +25682,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>27.27729735017823</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>67.27103207741465</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>230.2353729522697</v>
+        <v>127.3463093107765</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737582.9860549354</v>
+        <v>737582.9860549351</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673969.8508977488</v>
+        <v>673969.8508977492</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>621383.9113520714</v>
+        <v>621383.9113520713</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811867</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778318.7250458645</v>
+        <v>778318.7250458647</v>
       </c>
       <c r="E2" t="n">
-        <v>726304.4593953507</v>
+        <v>726304.4593953509</v>
       </c>
       <c r="F2" t="n">
-        <v>726304.4593953515</v>
+        <v>726304.45939535</v>
       </c>
       <c r="G2" t="n">
+        <v>775255.5492591963</v>
+      </c>
+      <c r="H2" t="n">
         <v>775255.5492591962</v>
       </c>
-      <c r="H2" t="n">
-        <v>775255.5492591963</v>
-      </c>
       <c r="I2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="J2" t="n">
+        <v>779989.6813710694</v>
+      </c>
+      <c r="K2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>779989.6813710693</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>779989.6813710693</v>
       </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710692</v>
-      </c>
       <c r="N2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="O2" t="n">
-        <v>726304.4593953511</v>
+        <v>726304.4593953501</v>
       </c>
       <c r="P2" t="n">
-        <v>726304.459395351</v>
+        <v>726304.4593953512</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>17475.53524982247</v>
+        <v>17475.53524982367</v>
       </c>
       <c r="E3" t="n">
-        <v>1144954.343066617</v>
+        <v>1144954.343066616</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41706.73339748803</v>
+        <v>41706.73339748799</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4289.780531654242</v>
+        <v>4289.780531654121</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.83987220662</v>
+        <v>40637.83987220655</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17001.3622713185</v>
+        <v>17001.36227131847</v>
       </c>
       <c r="M3" t="n">
-        <v>204641.8369910517</v>
+        <v>204641.8369910518</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>425429.526765747</v>
+        <v>425429.5267657466</v>
       </c>
       <c r="E4" t="n">
+        <v>57605.61344858623</v>
+      </c>
+      <c r="F4" t="n">
         <v>57605.61344858626</v>
       </c>
-      <c r="F4" t="n">
-        <v>57605.61344858625</v>
-      </c>
       <c r="G4" t="n">
-        <v>82422.55330581393</v>
+        <v>82422.55330581398</v>
       </c>
       <c r="H4" t="n">
-        <v>82422.55330581393</v>
+        <v>82422.55330581396</v>
       </c>
       <c r="I4" t="n">
         <v>84463.97125233602</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646602</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646602</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="M4" t="n">
+        <v>85257.94592934288</v>
+      </c>
+      <c r="N4" t="n">
         <v>85257.94592934291</v>
       </c>
-      <c r="N4" t="n">
-        <v>85257.94592934294</v>
-      </c>
       <c r="O4" t="n">
+        <v>57605.61344858627</v>
+      </c>
+      <c r="P4" t="n">
         <v>57605.61344858626</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57605.61344858629</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34072.43937493564</v>
+        <v>34072.43937493567</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178175</v>
@@ -26482,22 +26482,22 @@
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>85522.47036726151</v>
+        <v>85522.47036726154</v>
       </c>
       <c r="H5" t="n">
-        <v>85522.47036726151</v>
+        <v>85522.47036726154</v>
       </c>
       <c r="I5" t="n">
         <v>86503.28292559492</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>85898.40431568128</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313786.4123385106</v>
+        <v>313781.9987606427</v>
       </c>
       <c r="C6" t="n">
-        <v>313786.4123385106</v>
+        <v>313781.9987606424</v>
       </c>
       <c r="D6" t="n">
-        <v>301341.2236553594</v>
+        <v>301336.8264018713</v>
       </c>
       <c r="E6" t="n">
-        <v>-554510.9904416346</v>
+        <v>-554652.2673415694</v>
       </c>
       <c r="F6" t="n">
-        <v>590443.3526249835</v>
+        <v>590302.0757250458</v>
       </c>
       <c r="G6" t="n">
-        <v>565603.7921886327</v>
+        <v>565591.333946233</v>
       </c>
       <c r="H6" t="n">
-        <v>607310.5255861208</v>
+        <v>607298.067343721</v>
       </c>
       <c r="I6" t="n">
-        <v>604732.6466614838</v>
+        <v>604732.646661484</v>
       </c>
       <c r="J6" t="n">
-        <v>569218.5362175906</v>
+        <v>569218.5362175908</v>
       </c>
       <c r="K6" t="n">
-        <v>609856.3760897971</v>
+        <v>609856.376089797</v>
       </c>
       <c r="L6" t="n">
-        <v>592855.0138184787</v>
+        <v>592855.0138184788</v>
       </c>
       <c r="M6" t="n">
         <v>404191.4941349933</v>
       </c>
       <c r="N6" t="n">
-        <v>608833.3311260449</v>
+        <v>608833.3311260447</v>
       </c>
       <c r="O6" t="n">
-        <v>590443.3526249831</v>
+        <v>590302.0757250459</v>
       </c>
       <c r="P6" t="n">
-        <v>590443.3526249829</v>
+        <v>590302.0757250472</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.22683945774065</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68.22683945774065</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.22683945774065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>72.69857039803702</v>
+      </c>
+      <c r="N2" t="n">
+        <v>72.69857039803702</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859258</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="G2" t="n">
-        <v>68.22683945774071</v>
-      </c>
-      <c r="H2" t="n">
-        <v>68.22683945774071</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68.22683945774068</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>72.69857039803705</v>
-      </c>
-      <c r="N2" t="n">
-        <v>72.69857039803705</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.40547591447883</v>
+        <v>20.40547591448023</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
+        <v>921.539081051889</v>
+      </c>
+      <c r="H4" t="n">
+        <v>921.539081051889</v>
+      </c>
+      <c r="I4" t="n">
+        <v>937.6708665507932</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="M4" t="n">
         <v>921.5390810518884</v>
-      </c>
-      <c r="H4" t="n">
-        <v>921.5390810518884</v>
-      </c>
-      <c r="I4" t="n">
-        <v>937.6708665507931</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="M4" t="n">
-        <v>921.5390810518885</v>
       </c>
       <c r="N4" t="n">
         <v>921.5390810518886</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.25170283914814</v>
+        <v>21.25170283914809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72343377944449</v>
+        <v>25.72343377944446</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.25170283914813</v>
+        <v>21.25170283914809</v>
       </c>
       <c r="M2" t="n">
         <v>25.72343377944446</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.40547591447883</v>
+        <v>20.40547591448023</v>
       </c>
       <c r="E3" t="n">
-        <v>1069.371224678819</v>
+        <v>1069.371224678818</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.13178549890472</v>
+        <v>16.13178549890426</v>
       </c>
       <c r="J4" t="n">
-        <v>76.66559465782143</v>
+        <v>76.6655946578212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.6040752455664</v>
+        <v>738.6040752455666</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.25170283914814</v>
+        <v>21.25170283914809</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72343377944449</v>
+        <v>25.72343377944446</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.6346912405544</v>
       </c>
       <c r="I8" t="n">
-        <v>207.3133484239016</v>
+        <v>207.3133484239014</v>
       </c>
       <c r="J8" t="n">
-        <v>4.986920464576346</v>
+        <v>4.986920464575868</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.132159165661687</v>
+        <v>1.132159165661079</v>
       </c>
       <c r="R8" t="n">
-        <v>144.7161713023039</v>
+        <v>144.7161713023036</v>
       </c>
       <c r="S8" t="n">
-        <v>207.1507639283511</v>
+        <v>207.150763928351</v>
       </c>
       <c r="T8" t="n">
         <v>222.7367542040685</v>
@@ -27950,7 +27950,7 @@
         <v>111.8115493500466</v>
       </c>
       <c r="I9" t="n">
-        <v>87.8854726068051</v>
+        <v>87.88547260680498</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.43274059561141</v>
+        <v>97.43274059561122</v>
       </c>
       <c r="S9" t="n">
-        <v>170.8679145897075</v>
+        <v>170.8679145897074</v>
       </c>
       <c r="T9" t="n">
         <v>199.9878170687329</v>
@@ -28032,10 +28032,10 @@
         <v>154.343896003896</v>
       </c>
       <c r="J10" t="n">
-        <v>90.75764919557602</v>
+        <v>90.75764919557585</v>
       </c>
       <c r="K10" t="n">
-        <v>17.99437736380024</v>
+        <v>17.99437736379995</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>83.08081638860808</v>
+        <v>83.08081638860787</v>
       </c>
       <c r="R10" t="n">
-        <v>175.6388752481037</v>
+        <v>175.6388752481036</v>
       </c>
       <c r="S10" t="n">
-        <v>223.3753308676599</v>
+        <v>223.3753308676598</v>
       </c>
       <c r="T10" t="n">
         <v>227.7883669089404</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859277</v>
+        <v>46.9751366185928</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>28.86991712344724</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.86991712344815</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.86991712344684</v>
+        <v>28.86991712344798</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22683945774071</v>
+        <v>68.22683945774065</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>28.86991712344752</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.86991712344843</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22683945774068</v>
+        <v>68.22683945774065</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="C35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="D35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="E35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="F35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="G35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="H35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="T35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="U35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="V35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="W35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="X35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="C37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="D37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="E37" t="n">
-        <v>29.44628112598588</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="F37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="G37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="H37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="I37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="S37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="T37" t="n">
-        <v>72.69857039803705</v>
+        <v>29.4462811259865</v>
       </c>
       <c r="U37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="V37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="W37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="X37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="C38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="D38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="E38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="F38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="G38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="H38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="T38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="U38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="V38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="W38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="X38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="C40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="D40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="E40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="F40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="G40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="H40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="I40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="S40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="T40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="U40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="V40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="W40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="X40" t="n">
-        <v>29.44628112598593</v>
+        <v>72.69857039803702</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.69857039803705</v>
+        <v>29.44628112598647</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08203206397780427</v>
+        <v>0.08203206397780989</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8401108752126882</v>
+        <v>0.8401108752127459</v>
       </c>
       <c r="I8" t="n">
-        <v>3.162541146504302</v>
+        <v>3.162541146504519</v>
       </c>
       <c r="J8" t="n">
-        <v>6.962368890036172</v>
+        <v>6.962368890036649</v>
       </c>
       <c r="K8" t="n">
-        <v>10.43478615821663</v>
+        <v>10.43478615821734</v>
       </c>
       <c r="L8" t="n">
-        <v>12.94527493617736</v>
+        <v>12.94527493617825</v>
       </c>
       <c r="M8" t="n">
-        <v>14.40411265394263</v>
+        <v>14.40411265394362</v>
       </c>
       <c r="N8" t="n">
-        <v>14.63718625571957</v>
+        <v>14.63718625572058</v>
       </c>
       <c r="O8" t="n">
-        <v>13.82147991954028</v>
+        <v>13.82147991954123</v>
       </c>
       <c r="P8" t="n">
-        <v>11.79631334008823</v>
+        <v>11.79631334008904</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.858540048883118</v>
+        <v>8.858540048883725</v>
       </c>
       <c r="R8" t="n">
-        <v>5.152946638845752</v>
+        <v>5.152946638846106</v>
       </c>
       <c r="S8" t="n">
-        <v>1.869305657894217</v>
+        <v>1.869305657894345</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3590953600628384</v>
+        <v>0.359095360062863</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00656256511822434</v>
+        <v>0.00656256511822479</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0438910236651054</v>
+        <v>0.04389102366510841</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4238948864498339</v>
+        <v>0.4238948864498629</v>
       </c>
       <c r="I9" t="n">
-        <v>1.511160244609989</v>
+        <v>1.511160244610092</v>
       </c>
       <c r="J9" t="n">
-        <v>4.146739213903665</v>
+        <v>4.14673921390395</v>
       </c>
       <c r="K9" t="n">
-        <v>7.087437799465727</v>
+        <v>7.087437799466213</v>
       </c>
       <c r="L9" t="n">
-        <v>9.529934765530891</v>
+        <v>9.529934765531545</v>
       </c>
       <c r="M9" t="n">
-        <v>11.12098437339096</v>
+        <v>11.12098437339172</v>
       </c>
       <c r="N9" t="n">
-        <v>11.41532373823283</v>
+        <v>11.41532373823361</v>
       </c>
       <c r="O9" t="n">
-        <v>10.44279105596918</v>
+        <v>10.4427910559699</v>
       </c>
       <c r="P9" t="n">
-        <v>8.381260475137541</v>
+        <v>8.381260475138115</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.602650669952753</v>
+        <v>5.602650669953138</v>
       </c>
       <c r="R9" t="n">
-        <v>2.725093557031721</v>
+        <v>2.725093557031908</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8152565141303564</v>
+        <v>0.8152565141304123</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1769116260887362</v>
+        <v>0.1769116260887483</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002887567346388514</v>
+        <v>0.002887567346388713</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03679675984578148</v>
+        <v>0.03679675984578401</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3271566466288575</v>
+        <v>0.3271566466288799</v>
       </c>
       <c r="I10" t="n">
-        <v>1.106578923362229</v>
+        <v>1.106578923362305</v>
       </c>
       <c r="J10" t="n">
-        <v>2.601530921096751</v>
+        <v>2.60153092109693</v>
       </c>
       <c r="K10" t="n">
-        <v>4.275114462082612</v>
+        <v>4.275114462082906</v>
       </c>
       <c r="L10" t="n">
-        <v>5.470674641071914</v>
+        <v>5.470674641072289</v>
       </c>
       <c r="M10" t="n">
-        <v>5.768059363825547</v>
+        <v>5.768059363825943</v>
       </c>
       <c r="N10" t="n">
-        <v>5.630907804400366</v>
+        <v>5.630907804400752</v>
       </c>
       <c r="O10" t="n">
-        <v>5.201054746201916</v>
+        <v>5.201054746202273</v>
       </c>
       <c r="P10" t="n">
-        <v>4.45040084534797</v>
+        <v>4.450400845348276</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.081226863086303</v>
+        <v>3.081226863086514</v>
       </c>
       <c r="R10" t="n">
-        <v>1.654516129065775</v>
+        <v>1.654516129065888</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6412671693123917</v>
+        <v>0.6412671693124357</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1572225193410663</v>
+        <v>0.1572225193410771</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002007095991588083</v>
+        <v>0.002007095991588221</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32093,10 +32093,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.512347035316</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32564,13 +32564,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32804,7 +32804,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33029,10 +33029,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33269,13 +33269,13 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.512347035316</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,13 +35577,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O14" t="n">
         <v>508.053000888219</v>
@@ -35741,10 +35741,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165897</v>
+        <v>92.553553231659</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120763</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>525.0032497130421</v>
       </c>
       <c r="L17" t="n">
-        <v>812.4986927220451</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35963,7 +35963,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.670908060957</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -36042,10 +36042,10 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>234.9175766677668</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6272892936462</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>812.4986927220451</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>864.9615792179344</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36212,13 +36212,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>263.8269882685572</v>
+        <v>263.8269882685584</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36367,10 +36367,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>583.2239339810093</v>
+        <v>592.2855851624116</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597763</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36519,10 +36519,10 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>348.6272892936456</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5032965169322</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>604.4382338939705</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>698.2880119162079</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>985.2384151567161</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>558.4766521298096</v>
       </c>
       <c r="L32" t="n">
-        <v>858.140116080226</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,13 +37306,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>490.6999845505629</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>571.6842815887753</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37321,7 +37321,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.670908060957</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37543,13 +37543,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>574.0309859884582</v>
+        <v>571.684281588776</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
